--- a/pipeline_review_agent/datatesting.xlsx
+++ b/pipeline_review_agent/datatesting.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Phone Call</t>
+          <t>Visit</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="T2" s="2" t="n">
-        <v>45491</v>
+        <v>45884</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -882,1079 +882,230 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>411453</v>
+        <v>428556</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Moses Morales</t>
+          <t>Natasha Reynolds</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tracie Jackson</t>
+          <t>Jeff Mcmullen</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023 Medical School</t>
+          <t>Fy24 Heart &amp; Vascular</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Endowment</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>Capital</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Solicitation</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tracie Jackson</t>
+          <t>Jeff Mcmullen</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10000</v>
+        <v>15000000</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>45077</v>
+        <v>45162</v>
       </c>
       <c r="J6" t="n">
-        <v>10000</v>
+        <v>15000000</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>45086</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Task/Other</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Stewardship</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O6" s="2" t="n">
-        <v>45373</v>
+        <v>45460</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>45373</v>
+        <v>45460</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Tracie Jackson</t>
+          <t>Jeff Mcmullen</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Task/Other</t>
+          <t>Phone Call</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Thank You</t>
         </is>
       </c>
       <c r="T6" s="2" t="n">
-        <v>46183</v>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
+        <v>45889</v>
+      </c>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>411621</v>
+        <v>434680</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hot Henry</t>
+          <t>Sam Oliver</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tracie Jackson</t>
+          <t>Jeff Mcmullen</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Springfield Expansion Campaign</t>
+          <t>Fy24 Heart &amp; Vascular</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Capital Campaign</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>Capital</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Solicitation</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Tracie Jackson</t>
+          <t>Jeff Mcmullen</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10000</v>
+        <v>15000000</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>39716</v>
+        <v>45162</v>
       </c>
       <c r="J7" t="n">
-        <v>2500</v>
+        <v>10000000</v>
       </c>
       <c r="K7" t="n">
-        <v>250</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>39850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Meeting</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Stewardship</t>
+          <t>Cultivation</t>
         </is>
       </c>
       <c r="O7" s="2" t="n">
-        <v>45373</v>
+        <v>45336</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>45373</v>
+        <v>45463</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Solicitation</t>
-        </is>
-      </c>
-      <c r="T7" s="2" t="n">
-        <v>45566</v>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
+          <t>Jeff Mcmullen</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>412095</v>
+        <v>434552</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gail Simpson</t>
+          <t>Sam Cruz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tracie Jackson</t>
+          <t>Jeff Mcmullen</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Anasti Endowment</t>
+          <t>2024 Gift To Pediatrics/Pediatric Ed</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Endowment</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Cultivation</t>
-        </is>
-      </c>
+          <t>Capital</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tracie Jackson</t>
+          <t>Jeff Mcmullen</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10000</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>5000000</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>45016</v>
+      </c>
       <c r="J8" t="n">
-        <v>10000</v>
+        <v>5000000</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
+        <v>5000000</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>45155</v>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Phone Call</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Solicitation Follow Up</t>
+          <t>Stewardship</t>
         </is>
       </c>
       <c r="O8" s="2" t="n">
-        <v>45426</v>
+        <v>45369</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>45426</v>
+        <v>45369</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Phone Call</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Thank You</t>
-        </is>
-      </c>
-      <c r="T8" s="2" t="n">
-        <v>45498</v>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>412128</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Jerry Elliott</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2024 Tbd</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Cultivation</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5000</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>5000</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>45289</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Meeting</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Qualification</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>45366</v>
-      </c>
-      <c r="P9" s="2" t="n">
-        <v>45366</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Mailing</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Qualification</t>
-        </is>
-      </c>
-      <c r="T9" s="2" t="n">
-        <v>45504</v>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>411724</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Tina Mitchell</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2024 Tbd</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Cultivation</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1500</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>1500</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Task/Other</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Cultivation</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>45065</v>
-      </c>
-      <c r="P10" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Task/Other</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Cultivation</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="n">
-        <v>45485</v>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>410945</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Tim Thomas</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2024 Tbd</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Cultivation</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Phone Call</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Thank You</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>45180</v>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>45195</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Task/Other</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Cultivation</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="n">
-        <v>45485</v>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>412161</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>A'Ja Nowitzki</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2024 Request For Comprehensive Campaign</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Multiple Categories</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Cultivation</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Phone Call</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Thank You</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="n">
-        <v>45398</v>
-      </c>
-      <c r="P12" s="2" t="n">
-        <v>45476</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Phone Call
-412161</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Phone Call</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="n">
-        <v>45494</v>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>411065</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Otis Shelton</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Bg Discovery</t>
-        </is>
-      </c>
-      <c r="O13" s="2" t="n">
-        <v>45447</v>
-      </c>
-      <c r="P13" s="2" t="n">
-        <v>45462</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Phone Call</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Bg Discovery</t>
-        </is>
-      </c>
-      <c r="T13" s="2" t="n">
-        <v>45485</v>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>411253</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Emily Jennings</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Stewardship</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="n">
-        <v>45489</v>
-      </c>
-      <c r="P14" s="2" t="n">
-        <v>45463</v>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>411413</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Linda Robertson</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="O15" s="2" t="n">
-        <v>45428</v>
-      </c>
-      <c r="P15" s="2" t="n">
-        <v>45428</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Task/Other</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="T15" s="2" t="n">
-        <v>45580</v>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>411709</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Aerial Brown</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Cultivation</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="n">
-        <v>43476</v>
-      </c>
-      <c r="P16" s="2" t="n">
-        <v>43476</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>412193</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Vince Schmidt</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Mailing</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Stewardship</t>
-        </is>
-      </c>
-      <c r="O17" s="2" t="n">
-        <v>45375</v>
-      </c>
-      <c r="P17" s="2" t="n">
-        <v>45375</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Tracie Jackson</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>428556</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Natasha Reynolds</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
           <t>Jeff Mcmullen</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Fy24 Heart &amp; Vascular</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Capital</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Solicitation</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Jeff Mcmullen</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>15000000</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>45162</v>
-      </c>
-      <c r="J18" t="n">
-        <v>15000000</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Task/Other</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="O18" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="P18" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Jeff Mcmullen</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>434680</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Sam Oliver</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Jeff Mcmullen</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Fy24 Heart &amp; Vascular</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Capital</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Solicitation</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Jeff Mcmullen</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>15000000</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>45162</v>
-      </c>
-      <c r="J19" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Meeting</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Cultivation</t>
-        </is>
-      </c>
-      <c r="O19" s="2" t="n">
-        <v>45336</v>
-      </c>
-      <c r="P19" s="2" t="n">
-        <v>45463</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>Jeff Mcmullen</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>434552</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Sam Cruz</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Jeff Mcmullen</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2024 Gift To Pediatrics/Pediatric Ed</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Capital</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Jeff Mcmullen</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>45016</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="L20" s="2" t="n">
-        <v>45155</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Stewardship</t>
-        </is>
-      </c>
-      <c r="O20" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="P20" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>Jeff Mcmullen</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/pipeline_review_agent/datatesting.xlsx
+++ b/pipeline_review_agent/datatesting.xlsx
@@ -934,7 +934,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Relationship Building</t>
         </is>
       </c>
       <c r="O6" s="2" t="n">
@@ -955,13 +955,17 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Thank You</t>
+          <t>Cultivation</t>
         </is>
       </c>
       <c r="T6" s="2" t="n">
-        <v>45889</v>
-      </c>
-      <c r="U6" t="inlineStr"/>
+        <v>45879</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Jeff Mcmullen</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">

--- a/pipeline_review_agent/datatesting.xlsx
+++ b/pipeline_review_agent/datatesting.xlsx
@@ -555,7 +555,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tracie Jackson</t>
+          <t>John Smith</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -563,8 +563,16 @@
           <t>2024 - 25 Immune Gene Mutation Research Project</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Scholarship</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Stewardship</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>Tracie Jackson</t>
@@ -636,7 +644,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tracie Jackson</t>
+          <t>John Smith</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -649,7 +657,11 @@
           <t>Capital Campaign</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Solicitation</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>Tracie Jackson</t>
@@ -721,7 +733,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tracie Jackson</t>
+          <t>John Smith</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -802,7 +814,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tracie Jackson</t>
+          <t>John Smith</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
